--- a/Code/Results/Cases/Case_1_191/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_191/res_line/loading_percent.xlsx
@@ -420,44 +420,23 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>11.75660175112908</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.878951511247307</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>103.0054582113314</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.873277500682863</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
+        <v>11.95368807342127</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +446,598 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>11.3281428909343</v>
+      </c>
+      <c r="E3">
+        <v>8.899179571848519</v>
+      </c>
+      <c r="F3">
+        <v>101.1150965606016</v>
+      </c>
+      <c r="G3">
+        <v>3.894336807167578</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>11.99135131473505</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>11.06590332516419</v>
+      </c>
+      <c r="E4">
+        <v>8.912329868753126</v>
+      </c>
+      <c r="F4">
+        <v>100.0024174626767</v>
+      </c>
+      <c r="G4">
+        <v>3.907715721773281</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>12.01859962734069</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>10.9593831587743</v>
+      </c>
+      <c r="E5">
+        <v>8.917872761689408</v>
+      </c>
+      <c r="F5">
+        <v>99.56123390223573</v>
+      </c>
+      <c r="G5">
+        <v>3.913283607086124</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>12.03072345441742</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>10.94172052140551</v>
+      </c>
+      <c r="E6">
+        <v>8.918804283473648</v>
+      </c>
+      <c r="F6">
+        <v>99.48871963836068</v>
+      </c>
+      <c r="G6">
+        <v>3.914215236388495</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>12.03279772889762</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>11.06446517589876</v>
+      </c>
+      <c r="E7">
+        <v>8.912403876380019</v>
+      </c>
+      <c r="F7">
+        <v>99.99641772988262</v>
+      </c>
+      <c r="G7">
+        <v>3.907790339069756</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>12.01875902558632</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>11.60877253385124</v>
+      </c>
+      <c r="E8">
+        <v>8.885774847716679</v>
+      </c>
+      <c r="F8">
+        <v>102.3438037413023</v>
+      </c>
+      <c r="G8">
+        <v>3.880447606569402</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>11.965808288534</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="D9">
+        <v>12.67757651562436</v>
+      </c>
+      <c r="E9">
+        <v>8.839330970509298</v>
+      </c>
+      <c r="F9">
+        <v>107.3200992523928</v>
+      </c>
+      <c r="G9">
+        <v>3.830236872778486</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>11.89548345287679</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="D10">
+        <v>13.45785940607576</v>
+      </c>
+      <c r="E10">
+        <v>8.808706801499699</v>
+      </c>
+      <c r="F10">
+        <v>111.193586758479</v>
+      </c>
+      <c r="G10">
+        <v>3.795201303064717</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>11.86541701899705</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="D11">
+        <v>13.81087117281805</v>
+      </c>
+      <c r="E11">
+        <v>8.795530751400243</v>
+      </c>
+      <c r="F11">
+        <v>113.0011798464052</v>
+      </c>
+      <c r="G11">
+        <v>3.779611430380989</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>11.85670710076033</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="D12">
+        <v>13.9442189519648</v>
+      </c>
+      <c r="E12">
+        <v>8.790649694714922</v>
+      </c>
+      <c r="F12">
+        <v>113.6921060659535</v>
+      </c>
+      <c r="G12">
+        <v>3.773753119032482</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>11.85414808105497</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="D13">
+        <v>13.91551540669073</v>
+      </c>
+      <c r="E13">
+        <v>8.791696096820337</v>
+      </c>
+      <c r="F13">
+        <v>113.5430180887398</v>
+      </c>
+      <c r="G13">
+        <v>3.775012880324047</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>11.85466591784915</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="D14">
+        <v>13.82184861310304</v>
+      </c>
+      <c r="E14">
+        <v>8.795127011461009</v>
+      </c>
+      <c r="F14">
+        <v>113.0578943870247</v>
+      </c>
+      <c r="G14">
+        <v>3.779128586002793</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>11.85648160409894</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="D15">
+        <v>13.76443082841901</v>
+      </c>
+      <c r="E15">
+        <v>8.797242663093103</v>
+      </c>
+      <c r="F15">
+        <v>112.7615768633457</v>
+      </c>
+      <c r="G15">
+        <v>3.781655315872579</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>11.85769080505477</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16">
+        <v>13.43474538834994</v>
+      </c>
+      <c r="E16">
+        <v>8.809583066587251</v>
+      </c>
+      <c r="F16">
+        <v>111.0763613356737</v>
+      </c>
+      <c r="G16">
+        <v>3.796226738777857</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>11.866088281059</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="D17">
+        <v>13.23195429878483</v>
+      </c>
+      <c r="E17">
+        <v>8.81734676224303</v>
+      </c>
+      <c r="F17">
+        <v>110.0540987116504</v>
+      </c>
+      <c r="G17">
+        <v>3.805251669648638</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>11.87252933148758</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18">
+        <v>13.11513320482477</v>
+      </c>
+      <c r="E18">
+        <v>8.821883307187035</v>
+      </c>
+      <c r="F18">
+        <v>109.4704097135206</v>
+      </c>
+      <c r="G18">
+        <v>3.810475635702246</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>11.87670002217759</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="D19">
+        <v>13.0755503571246</v>
+      </c>
+      <c r="E19">
+        <v>8.823431515702865</v>
+      </c>
+      <c r="F19">
+        <v>109.2735236661556</v>
+      </c>
+      <c r="G19">
+        <v>3.812250199540788</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>11.87819144590213</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="D20">
+        <v>13.25356091999856</v>
+      </c>
+      <c r="E20">
+        <v>8.816512949130004</v>
+      </c>
+      <c r="F20">
+        <v>110.1624773687733</v>
+      </c>
+      <c r="G20">
+        <v>3.804287561807974</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>11.87179526973061</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="D21">
+        <v>13.84937008912021</v>
+      </c>
+      <c r="E21">
+        <v>8.794116326781095</v>
+      </c>
+      <c r="F21">
+        <v>113.2002131526953</v>
+      </c>
+      <c r="G21">
+        <v>3.777918516166098</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>11.85592802280611</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="D22">
+        <v>14.23683185334613</v>
+      </c>
+      <c r="E22">
+        <v>8.780110823745465</v>
+      </c>
+      <c r="F22">
+        <v>115.2230116359956</v>
+      </c>
+      <c r="G22">
+        <v>3.760945947318876</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>11.84987959517513</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="D23">
+        <v>14.03022493303274</v>
+      </c>
+      <c r="E23">
+        <v>8.787528026733819</v>
+      </c>
+      <c r="F23">
+        <v>114.1400031918841</v>
+      </c>
+      <c r="G23">
+        <v>3.769982331916772</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>11.85270360273273</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="D24">
+        <v>13.24379329067749</v>
+      </c>
+      <c r="E24">
+        <v>8.816889688358581</v>
+      </c>
+      <c r="F24">
+        <v>110.1134668363378</v>
+      </c>
+      <c r="G24">
+        <v>3.804723324300553</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>11.8721256843042</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="D25">
+        <v>12.38894960809933</v>
+      </c>
+      <c r="E25">
+        <v>8.851279470481161</v>
+      </c>
+      <c r="F25">
+        <v>105.9350065783929</v>
+      </c>
+      <c r="G25">
+        <v>3.843477439267198</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>11.9108038389839</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_191/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_191/res_line/loading_percent.xlsx
@@ -420,23 +420,44 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>11.75660175112908</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.878951511247307</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>103.0054582113314</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3.873277500682863</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2">
-        <v>11.95368807342127</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -446,598 +467,115 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>11.3281428909343</v>
-      </c>
-      <c r="E3">
-        <v>8.899179571848519</v>
-      </c>
-      <c r="F3">
-        <v>101.1150965606016</v>
-      </c>
-      <c r="G3">
-        <v>3.894336807167578</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>11.99135131473505</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>11.06590332516419</v>
-      </c>
-      <c r="E4">
-        <v>8.912329868753126</v>
-      </c>
-      <c r="F4">
-        <v>100.0024174626767</v>
-      </c>
-      <c r="G4">
-        <v>3.907715721773281</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>12.01859962734069</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>10.9593831587743</v>
-      </c>
-      <c r="E5">
-        <v>8.917872761689408</v>
-      </c>
-      <c r="F5">
-        <v>99.56123390223573</v>
-      </c>
-      <c r="G5">
-        <v>3.913283607086124</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>12.03072345441742</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>10.94172052140551</v>
-      </c>
-      <c r="E6">
-        <v>8.918804283473648</v>
-      </c>
-      <c r="F6">
-        <v>99.48871963836068</v>
-      </c>
-      <c r="G6">
-        <v>3.914215236388495</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>12.03279772889762</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>11.06446517589876</v>
-      </c>
-      <c r="E7">
-        <v>8.912403876380019</v>
-      </c>
-      <c r="F7">
-        <v>99.99641772988262</v>
-      </c>
-      <c r="G7">
-        <v>3.907790339069756</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>12.01875902558632</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>11.60877253385124</v>
-      </c>
-      <c r="E8">
-        <v>8.885774847716679</v>
-      </c>
-      <c r="F8">
-        <v>102.3438037413023</v>
-      </c>
-      <c r="G8">
-        <v>3.880447606569402</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>11.965808288534</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>12.67757651562436</v>
-      </c>
-      <c r="E9">
-        <v>8.839330970509298</v>
-      </c>
-      <c r="F9">
-        <v>107.3200992523928</v>
-      </c>
-      <c r="G9">
-        <v>3.830236872778486</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>11.89548345287679</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>13.45785940607576</v>
-      </c>
-      <c r="E10">
-        <v>8.808706801499699</v>
-      </c>
-      <c r="F10">
-        <v>111.193586758479</v>
-      </c>
-      <c r="G10">
-        <v>3.795201303064717</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>11.86541701899705</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>13.81087117281805</v>
-      </c>
-      <c r="E11">
-        <v>8.795530751400243</v>
-      </c>
-      <c r="F11">
-        <v>113.0011798464052</v>
-      </c>
-      <c r="G11">
-        <v>3.779611430380989</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>11.85670710076033</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>13.9442189519648</v>
-      </c>
-      <c r="E12">
-        <v>8.790649694714922</v>
-      </c>
-      <c r="F12">
-        <v>113.6921060659535</v>
-      </c>
-      <c r="G12">
-        <v>3.773753119032482</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>11.85414808105497</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D13">
-        <v>13.91551540669073</v>
-      </c>
-      <c r="E13">
-        <v>8.791696096820337</v>
-      </c>
-      <c r="F13">
-        <v>113.5430180887398</v>
-      </c>
-      <c r="G13">
-        <v>3.775012880324047</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>11.85466591784915</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>13.82184861310304</v>
-      </c>
-      <c r="E14">
-        <v>8.795127011461009</v>
-      </c>
-      <c r="F14">
-        <v>113.0578943870247</v>
-      </c>
-      <c r="G14">
-        <v>3.779128586002793</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>11.85648160409894</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>13.76443082841901</v>
-      </c>
-      <c r="E15">
-        <v>8.797242663093103</v>
-      </c>
-      <c r="F15">
-        <v>112.7615768633457</v>
-      </c>
-      <c r="G15">
-        <v>3.781655315872579</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>11.85769080505477</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>13.43474538834994</v>
-      </c>
-      <c r="E16">
-        <v>8.809583066587251</v>
-      </c>
-      <c r="F16">
-        <v>111.0763613356737</v>
-      </c>
-      <c r="G16">
-        <v>3.796226738777857</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>11.866088281059</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>13.23195429878483</v>
-      </c>
-      <c r="E17">
-        <v>8.81734676224303</v>
-      </c>
-      <c r="F17">
-        <v>110.0540987116504</v>
-      </c>
-      <c r="G17">
-        <v>3.805251669648638</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>11.87252933148758</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>13.11513320482477</v>
-      </c>
-      <c r="E18">
-        <v>8.821883307187035</v>
-      </c>
-      <c r="F18">
-        <v>109.4704097135206</v>
-      </c>
-      <c r="G18">
-        <v>3.810475635702246</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>11.87670002217759</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>13.0755503571246</v>
-      </c>
-      <c r="E19">
-        <v>8.823431515702865</v>
-      </c>
-      <c r="F19">
-        <v>109.2735236661556</v>
-      </c>
-      <c r="G19">
-        <v>3.812250199540788</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>11.87819144590213</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="D20">
-        <v>13.25356091999856</v>
-      </c>
-      <c r="E20">
-        <v>8.816512949130004</v>
-      </c>
-      <c r="F20">
-        <v>110.1624773687733</v>
-      </c>
-      <c r="G20">
-        <v>3.804287561807974</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>11.87179526973061</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="D21">
-        <v>13.84937008912021</v>
-      </c>
-      <c r="E21">
-        <v>8.794116326781095</v>
-      </c>
-      <c r="F21">
-        <v>113.2002131526953</v>
-      </c>
-      <c r="G21">
-        <v>3.777918516166098</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>11.85592802280611</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="D22">
-        <v>14.23683185334613</v>
-      </c>
-      <c r="E22">
-        <v>8.780110823745465</v>
-      </c>
-      <c r="F22">
-        <v>115.2230116359956</v>
-      </c>
-      <c r="G22">
-        <v>3.760945947318876</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>11.84987959517513</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="D23">
-        <v>14.03022493303274</v>
-      </c>
-      <c r="E23">
-        <v>8.787528026733819</v>
-      </c>
-      <c r="F23">
-        <v>114.1400031918841</v>
-      </c>
-      <c r="G23">
-        <v>3.769982331916772</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>11.85270360273273</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="D24">
-        <v>13.24379329067749</v>
-      </c>
-      <c r="E24">
-        <v>8.816889688358581</v>
-      </c>
-      <c r="F24">
-        <v>110.1134668363378</v>
-      </c>
-      <c r="G24">
-        <v>3.804723324300553</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>11.8721256843042</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>23</v>
-      </c>
-      <c r="D25">
-        <v>12.38894960809933</v>
-      </c>
-      <c r="E25">
-        <v>8.851279470481161</v>
-      </c>
-      <c r="F25">
-        <v>105.9350065783929</v>
-      </c>
-      <c r="G25">
-        <v>3.843477439267198</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>11.9108038389839</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
